--- a/US_Stocks_ETF.xlsx
+++ b/US_Stocks_ETF.xlsx
@@ -522,7 +522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,6 +542,7 @@
     <col width="10" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="11"/>
     <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -585,6 +586,9 @@
       <c r="L1" s="1" t="n">
         <v>20251205</v>
       </c>
+      <c r="M1" s="1" t="n">
+        <v>20251208</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -627,6 +631,9 @@
       <c r="L2" t="n">
         <v>67</v>
       </c>
+      <c r="M2" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -668,6 +675,9 @@
       </c>
       <c r="L3" t="n">
         <v>-93</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-90</v>
       </c>
     </row>
   </sheetData>
@@ -681,7 +691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ3"/>
+  <dimension ref="A1:BA3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -741,6 +751,7 @@
     <col width="12" customWidth="1" min="50" max="50"/>
     <col width="12" customWidth="1" min="51" max="51"/>
     <col width="12" customWidth="1" min="52" max="52"/>
+    <col width="12" customWidth="1" min="53" max="53"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1004,6 +1015,11 @@
           <t>20251205</t>
         </is>
       </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>20251208</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1166,6 +1182,9 @@
       <c r="AZ2" t="n">
         <v>102</v>
       </c>
+      <c r="BA2" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1327,6 +1346,9 @@
       </c>
       <c r="AZ3" t="n">
         <v>73</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1340,7 +1362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG3"/>
+  <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1381,6 +1403,7 @@
     <col width="12" customWidth="1" min="31" max="31"/>
     <col width="12" customWidth="1" min="32" max="32"/>
     <col width="12" customWidth="1" min="33" max="33"/>
+    <col width="12" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1549,6 +1572,11 @@
           <t>20251205</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>20251208</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1654,6 +1682,9 @@
       <c r="AG2" t="n">
         <v>0.13</v>
       </c>
+      <c r="AH2" t="n">
+        <v>2.99</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1758,6 +1789,9 @@
       </c>
       <c r="AG3" t="n">
         <v>65.34999999999999</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>52.67</v>
       </c>
     </row>
   </sheetData>
@@ -1771,7 +1805,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1791,6 +1825,7 @@
     <col width="12" customWidth="1" min="10" max="10"/>
     <col width="12" customWidth="1" min="11" max="11"/>
     <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1854,6 +1889,11 @@
           <t>20251205</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>20251208</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1896,6 +1936,9 @@
       <c r="L2" t="n">
         <v>46</v>
       </c>
+      <c r="M2" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1937,6 +1980,9 @@
       </c>
       <c r="L3" t="n">
         <v>55</v>
+      </c>
+      <c r="M3" t="n">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1950,7 +1996,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS3"/>
+  <dimension ref="A1:BT3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2029,6 +2075,7 @@
     <col width="12" customWidth="1" min="69" max="69"/>
     <col width="12" customWidth="1" min="70" max="70"/>
     <col width="12" customWidth="1" min="71" max="71"/>
+    <col width="12" customWidth="1" min="72" max="72"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2249,6 +2296,9 @@
       <c r="BS1" s="1" t="n">
         <v>20251205</v>
       </c>
+      <c r="BT1" s="1" t="n">
+        <v>20251208</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2468,6 +2518,9 @@
       <c r="BS2" t="n">
         <v>624.38</v>
       </c>
+      <c r="BT2" t="n">
+        <v>627.21</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2686,6 +2739,9 @@
       </c>
       <c r="BS3" t="n">
         <v>55.86</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>56.57</v>
       </c>
     </row>
   </sheetData>
@@ -2699,7 +2755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS3"/>
+  <dimension ref="A1:BT3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2778,6 +2834,7 @@
     <col width="12" customWidth="1" min="69" max="69"/>
     <col width="12" customWidth="1" min="70" max="70"/>
     <col width="12" customWidth="1" min="71" max="71"/>
+    <col width="12" customWidth="1" min="72" max="72"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2998,6 +3055,9 @@
       <c r="BS1" s="1" t="n">
         <v>20251205</v>
       </c>
+      <c r="BT1" s="1" t="n">
+        <v>20251208</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3217,6 +3277,9 @@
       <c r="BS2" t="n">
         <v>628.92</v>
       </c>
+      <c r="BT2" t="n">
+        <v>628.84</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3435,6 +3498,9 @@
       </c>
       <c r="BS3" t="n">
         <v>57.08</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>57.04</v>
       </c>
     </row>
   </sheetData>
@@ -3448,7 +3514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS3"/>
+  <dimension ref="A1:BT3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3527,6 +3593,7 @@
     <col width="12" customWidth="1" min="69" max="69"/>
     <col width="12" customWidth="1" min="70" max="70"/>
     <col width="12" customWidth="1" min="71" max="71"/>
+    <col width="12" customWidth="1" min="72" max="72"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3747,6 +3814,9 @@
       <c r="BS1" s="1" t="n">
         <v>20251205</v>
       </c>
+      <c r="BT1" s="1" t="n">
+        <v>20251208</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3966,6 +4036,9 @@
       <c r="BS2" t="n">
         <v>623.71</v>
       </c>
+      <c r="BT2" t="n">
+        <v>621.6900000000001</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4184,6 +4257,9 @@
       </c>
       <c r="BS3" t="n">
         <v>55.68</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>55.12</v>
       </c>
     </row>
   </sheetData>
@@ -4197,7 +4273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS3"/>
+  <dimension ref="A1:BT3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4276,6 +4352,7 @@
     <col width="12" customWidth="1" min="69" max="69"/>
     <col width="12" customWidth="1" min="70" max="70"/>
     <col width="12" customWidth="1" min="71" max="71"/>
+    <col width="12" customWidth="1" min="72" max="72"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4496,6 +4573,9 @@
       <c r="BS1" s="1" t="n">
         <v>20251205</v>
       </c>
+      <c r="BT1" s="1" t="n">
+        <v>20251208</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4715,6 +4795,9 @@
       <c r="BS2" t="n">
         <v>625.48</v>
       </c>
+      <c r="BT2" t="n">
+        <v>624.28</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4933,6 +5016,9 @@
       </c>
       <c r="BS3" t="n">
         <v>56.15</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>55.8</v>
       </c>
     </row>
   </sheetData>
@@ -4946,7 +5032,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS3"/>
+  <dimension ref="A1:BT3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5025,6 +5111,7 @@
     <col width="12" customWidth="1" min="69" max="69"/>
     <col width="12" customWidth="1" min="70" max="70"/>
     <col width="12" customWidth="1" min="71" max="71"/>
+    <col width="12" customWidth="1" min="72" max="72"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5245,6 +5332,9 @@
       <c r="BS1" s="1" t="n">
         <v>20251205</v>
       </c>
+      <c r="BT1" s="1" t="n">
+        <v>20251208</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -5464,6 +5554,9 @@
       <c r="BS2" t="n">
         <v>53614169</v>
       </c>
+      <c r="BT2" t="n">
+        <v>43462406</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5682,6 +5775,9 @@
       </c>
       <c r="BS3" t="n">
         <v>73205980</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>69700018</v>
       </c>
     </row>
   </sheetData>
@@ -5695,7 +5791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ3"/>
+  <dimension ref="A1:BA3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5755,6 +5851,7 @@
     <col width="10" customWidth="1" min="50" max="50"/>
     <col width="10" customWidth="1" min="51" max="51"/>
     <col width="10" customWidth="1" min="52" max="52"/>
+    <col width="10" customWidth="1" min="53" max="53"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5918,6 +6015,9 @@
       <c r="AZ1" s="1" t="n">
         <v>20251205</v>
       </c>
+      <c r="BA1" s="1" t="n">
+        <v>20251208</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6080,6 +6180,9 @@
       <c r="AZ2" t="n">
         <v>100</v>
       </c>
+      <c r="BA2" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6241,6 +6344,9 @@
       </c>
       <c r="AZ3" t="n">
         <v>15</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -6254,7 +6360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6274,6 +6380,7 @@
     <col width="10" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="11"/>
     <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6317,6 +6424,9 @@
       <c r="L1" s="1" t="n">
         <v>20251205</v>
       </c>
+      <c r="M1" s="1" t="n">
+        <v>20251208</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6359,6 +6469,9 @@
       <c r="L2" t="n">
         <v>79</v>
       </c>
+      <c r="M2" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6399,6 +6512,9 @@
         <v>12</v>
       </c>
       <c r="L3" t="n">
+        <v>13</v>
+      </c>
+      <c r="M3" t="n">
         <v>13</v>
       </c>
     </row>
@@ -6413,7 +6529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ3"/>
+  <dimension ref="A1:BA3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6473,6 +6589,7 @@
     <col width="10" customWidth="1" min="50" max="50"/>
     <col width="10" customWidth="1" min="51" max="51"/>
     <col width="10" customWidth="1" min="52" max="52"/>
+    <col width="10" customWidth="1" min="53" max="53"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6636,6 +6753,9 @@
       <c r="AZ1" s="1" t="n">
         <v>20251205</v>
       </c>
+      <c r="BA1" s="1" t="n">
+        <v>20251208</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6798,6 +6918,9 @@
       <c r="AZ2" t="n">
         <v>60</v>
       </c>
+      <c r="BA2" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6959,6 +7082,9 @@
       </c>
       <c r="AZ3" t="n">
         <v>-38</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>-34</v>
       </c>
     </row>
   </sheetData>

--- a/US_Stocks_ETF.xlsx
+++ b/US_Stocks_ETF.xlsx
@@ -522,7 +522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,6 +543,7 @@
     <col width="10" customWidth="1" min="11" max="11"/>
     <col width="10" customWidth="1" min="12" max="12"/>
     <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="10" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -589,6 +590,9 @@
       <c r="M1" s="1" t="n">
         <v>20251208</v>
       </c>
+      <c r="N1" s="1" t="n">
+        <v>20251209</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -634,6 +638,9 @@
       <c r="M2" t="n">
         <v>61</v>
       </c>
+      <c r="N2" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -678,6 +685,9 @@
       </c>
       <c r="M3" t="n">
         <v>-90</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-86</v>
       </c>
     </row>
   </sheetData>
@@ -691,7 +701,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA3"/>
+  <dimension ref="A1:BB3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -752,6 +762,7 @@
     <col width="12" customWidth="1" min="51" max="51"/>
     <col width="12" customWidth="1" min="52" max="52"/>
     <col width="12" customWidth="1" min="53" max="53"/>
+    <col width="12" customWidth="1" min="54" max="54"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1020,6 +1031,11 @@
           <t>20251208</t>
         </is>
       </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>20251209</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1185,6 +1201,9 @@
       <c r="BA2" t="n">
         <v>102</v>
       </c>
+      <c r="BB2" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1349,6 +1368,9 @@
       </c>
       <c r="BA3" t="n">
         <v>75</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1362,7 +1384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1404,6 +1426,7 @@
     <col width="12" customWidth="1" min="32" max="32"/>
     <col width="12" customWidth="1" min="33" max="33"/>
     <col width="12" customWidth="1" min="34" max="34"/>
+    <col width="12" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1577,6 +1600,11 @@
           <t>20251208</t>
         </is>
       </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>20251209</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1685,6 +1713,9 @@
       <c r="AH2" t="n">
         <v>2.99</v>
       </c>
+      <c r="AI2" t="n">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1792,6 +1823,9 @@
       </c>
       <c r="AH3" t="n">
         <v>52.67</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>37.5</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +1839,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1826,6 +1860,7 @@
     <col width="12" customWidth="1" min="11" max="11"/>
     <col width="12" customWidth="1" min="12" max="12"/>
     <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1894,6 +1929,11 @@
           <t>20251208</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>20251209</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1939,6 +1979,9 @@
       <c r="M2" t="n">
         <v>37</v>
       </c>
+      <c r="N2" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1983,6 +2026,9 @@
       </c>
       <c r="M3" t="n">
         <v>52</v>
+      </c>
+      <c r="N3" t="n">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1996,7 +2042,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT3"/>
+  <dimension ref="A1:BU3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2076,6 +2122,7 @@
     <col width="12" customWidth="1" min="70" max="70"/>
     <col width="12" customWidth="1" min="71" max="71"/>
     <col width="12" customWidth="1" min="72" max="72"/>
+    <col width="12" customWidth="1" min="73" max="73"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2299,6 +2346,9 @@
       <c r="BT1" s="1" t="n">
         <v>20251208</v>
       </c>
+      <c r="BU1" s="1" t="n">
+        <v>20251209</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2521,6 +2571,9 @@
       <c r="BT2" t="n">
         <v>627.21</v>
       </c>
+      <c r="BU2" t="n">
+        <v>623.01</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2742,6 +2795,9 @@
       </c>
       <c r="BT3" t="n">
         <v>56.57</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>55.45</v>
       </c>
     </row>
   </sheetData>
@@ -2755,7 +2811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT3"/>
+  <dimension ref="A1:BU3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2835,6 +2891,7 @@
     <col width="12" customWidth="1" min="70" max="70"/>
     <col width="12" customWidth="1" min="71" max="71"/>
     <col width="12" customWidth="1" min="72" max="72"/>
+    <col width="12" customWidth="1" min="73" max="73"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3058,6 +3115,9 @@
       <c r="BT1" s="1" t="n">
         <v>20251208</v>
       </c>
+      <c r="BU1" s="1" t="n">
+        <v>20251209</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3280,6 +3340,9 @@
       <c r="BT2" t="n">
         <v>628.84</v>
       </c>
+      <c r="BU2" t="n">
+        <v>625.87</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3501,6 +3564,9 @@
       </c>
       <c r="BT3" t="n">
         <v>57.04</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>56.22</v>
       </c>
     </row>
   </sheetData>
@@ -3514,7 +3580,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT3"/>
+  <dimension ref="A1:BU3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3594,6 +3660,7 @@
     <col width="12" customWidth="1" min="70" max="70"/>
     <col width="12" customWidth="1" min="71" max="71"/>
     <col width="12" customWidth="1" min="72" max="72"/>
+    <col width="12" customWidth="1" min="73" max="73"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3817,6 +3884,9 @@
       <c r="BT1" s="1" t="n">
         <v>20251208</v>
       </c>
+      <c r="BU1" s="1" t="n">
+        <v>20251209</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4039,6 +4109,9 @@
       <c r="BT2" t="n">
         <v>621.6900000000001</v>
       </c>
+      <c r="BU2" t="n">
+        <v>621</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4260,6 +4333,9 @@
       </c>
       <c r="BT3" t="n">
         <v>55.12</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>55.09</v>
       </c>
     </row>
   </sheetData>
@@ -4273,7 +4349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT3"/>
+  <dimension ref="A1:BU3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4353,6 +4429,7 @@
     <col width="12" customWidth="1" min="70" max="70"/>
     <col width="12" customWidth="1" min="71" max="71"/>
     <col width="12" customWidth="1" min="72" max="72"/>
+    <col width="12" customWidth="1" min="73" max="73"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4576,6 +4653,9 @@
       <c r="BT1" s="1" t="n">
         <v>20251208</v>
       </c>
+      <c r="BU1" s="1" t="n">
+        <v>20251209</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4798,6 +4878,9 @@
       <c r="BT2" t="n">
         <v>624.28</v>
       </c>
+      <c r="BU2" t="n">
+        <v>625.05</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5019,6 +5102,9 @@
       </c>
       <c r="BT3" t="n">
         <v>55.8</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>56.01</v>
       </c>
     </row>
   </sheetData>
@@ -5032,7 +5118,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT3"/>
+  <dimension ref="A1:BU3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5112,6 +5198,7 @@
     <col width="12" customWidth="1" min="70" max="70"/>
     <col width="12" customWidth="1" min="71" max="71"/>
     <col width="12" customWidth="1" min="72" max="72"/>
+    <col width="12" customWidth="1" min="73" max="73"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5335,6 +5422,9 @@
       <c r="BT1" s="1" t="n">
         <v>20251208</v>
       </c>
+      <c r="BU1" s="1" t="n">
+        <v>20251209</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -5557,6 +5647,9 @@
       <c r="BT2" t="n">
         <v>43462406</v>
       </c>
+      <c r="BU2" t="n">
+        <v>37155999</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5778,6 +5871,9 @@
       </c>
       <c r="BT3" t="n">
         <v>69700018</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>48735976</v>
       </c>
     </row>
   </sheetData>
@@ -5791,7 +5887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA3"/>
+  <dimension ref="A1:BB3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5852,6 +5948,7 @@
     <col width="10" customWidth="1" min="51" max="51"/>
     <col width="10" customWidth="1" min="52" max="52"/>
     <col width="10" customWidth="1" min="53" max="53"/>
+    <col width="10" customWidth="1" min="54" max="54"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6018,6 +6115,9 @@
       <c r="BA1" s="1" t="n">
         <v>20251208</v>
       </c>
+      <c r="BB1" s="1" t="n">
+        <v>20251209</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6183,6 +6283,9 @@
       <c r="BA2" t="n">
         <v>97</v>
       </c>
+      <c r="BB2" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6347,6 +6450,9 @@
       </c>
       <c r="BA3" t="n">
         <v>14</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -6360,7 +6466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6381,6 +6487,7 @@
     <col width="10" customWidth="1" min="11" max="11"/>
     <col width="10" customWidth="1" min="12" max="12"/>
     <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="10" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6427,6 +6534,9 @@
       <c r="M1" s="1" t="n">
         <v>20251208</v>
       </c>
+      <c r="N1" s="1" t="n">
+        <v>20251209</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6472,6 +6582,9 @@
       <c r="M2" t="n">
         <v>77</v>
       </c>
+      <c r="N2" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6515,6 +6628,9 @@
         <v>13</v>
       </c>
       <c r="M3" t="n">
+        <v>13</v>
+      </c>
+      <c r="N3" t="n">
         <v>13</v>
       </c>
     </row>
@@ -6529,7 +6645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA3"/>
+  <dimension ref="A1:BB3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6590,6 +6706,7 @@
     <col width="10" customWidth="1" min="51" max="51"/>
     <col width="10" customWidth="1" min="52" max="52"/>
     <col width="10" customWidth="1" min="53" max="53"/>
+    <col width="10" customWidth="1" min="54" max="54"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6756,6 +6873,9 @@
       <c r="BA1" s="1" t="n">
         <v>20251208</v>
       </c>
+      <c r="BB1" s="1" t="n">
+        <v>20251209</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6921,6 +7041,9 @@
       <c r="BA2" t="n">
         <v>50</v>
       </c>
+      <c r="BB2" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7085,6 +7208,9 @@
       </c>
       <c r="BA3" t="n">
         <v>-34</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>-30</v>
       </c>
     </row>
   </sheetData>

--- a/US_Stocks_ETF.xlsx
+++ b/US_Stocks_ETF.xlsx
@@ -522,7 +522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,6 +544,7 @@
     <col width="10" customWidth="1" min="12" max="12"/>
     <col width="10" customWidth="1" min="13" max="13"/>
     <col width="10" customWidth="1" min="14" max="14"/>
+    <col width="10" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -593,6 +594,9 @@
       <c r="N1" s="1" t="n">
         <v>20251209</v>
       </c>
+      <c r="O1" s="1" t="n">
+        <v>20251210</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -641,6 +645,9 @@
       <c r="N2" t="n">
         <v>62</v>
       </c>
+      <c r="O2" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -688,6 +695,9 @@
       </c>
       <c r="N3" t="n">
         <v>-86</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-81</v>
       </c>
     </row>
   </sheetData>
@@ -701,7 +711,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB3"/>
+  <dimension ref="A1:BC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -763,6 +773,7 @@
     <col width="12" customWidth="1" min="52" max="52"/>
     <col width="12" customWidth="1" min="53" max="53"/>
     <col width="12" customWidth="1" min="54" max="54"/>
+    <col width="12" customWidth="1" min="55" max="55"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1036,6 +1047,11 @@
           <t>20251209</t>
         </is>
       </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>20251210</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1204,6 +1220,9 @@
       <c r="BB2" t="n">
         <v>102</v>
       </c>
+      <c r="BC2" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1371,6 +1390,9 @@
       </c>
       <c r="BB3" t="n">
         <v>79</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1384,7 +1406,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI3"/>
+  <dimension ref="A1:AJ3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1427,6 +1449,7 @@
     <col width="12" customWidth="1" min="33" max="33"/>
     <col width="12" customWidth="1" min="34" max="34"/>
     <col width="12" customWidth="1" min="35" max="35"/>
+    <col width="12" customWidth="1" min="36" max="36"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1605,6 +1628,11 @@
           <t>20251209</t>
         </is>
       </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>20251210</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1716,6 +1744,9 @@
       <c r="AI2" t="n">
         <v>3.6</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>5.56</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1826,6 +1857,9 @@
       </c>
       <c r="AI3" t="n">
         <v>37.5</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>22.43</v>
       </c>
     </row>
   </sheetData>
@@ -1839,7 +1873,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,6 +1895,7 @@
     <col width="12" customWidth="1" min="12" max="12"/>
     <col width="12" customWidth="1" min="13" max="13"/>
     <col width="12" customWidth="1" min="14" max="14"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1934,6 +1969,11 @@
           <t>20251209</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>20251210</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1982,6 +2022,9 @@
       <c r="N2" t="n">
         <v>32</v>
       </c>
+      <c r="O2" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2029,6 +2072,9 @@
       </c>
       <c r="N3" t="n">
         <v>36</v>
+      </c>
+      <c r="O3" t="n">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2042,7 +2088,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BU3"/>
+  <dimension ref="A1:BV3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2123,6 +2169,7 @@
     <col width="12" customWidth="1" min="71" max="71"/>
     <col width="12" customWidth="1" min="72" max="72"/>
     <col width="12" customWidth="1" min="73" max="73"/>
+    <col width="12" customWidth="1" min="74" max="74"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2349,6 +2396,9 @@
       <c r="BU1" s="1" t="n">
         <v>20251209</v>
       </c>
+      <c r="BV1" s="1" t="n">
+        <v>20251210</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2574,6 +2624,9 @@
       <c r="BU2" t="n">
         <v>623.01</v>
       </c>
+      <c r="BV2" t="n">
+        <v>623.85</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2798,6 +2851,9 @@
       </c>
       <c r="BU3" t="n">
         <v>55.45</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>55.65</v>
       </c>
     </row>
   </sheetData>
@@ -2811,7 +2867,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BU3"/>
+  <dimension ref="A1:BV3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2892,6 +2948,7 @@
     <col width="12" customWidth="1" min="71" max="71"/>
     <col width="12" customWidth="1" min="72" max="72"/>
     <col width="12" customWidth="1" min="73" max="73"/>
+    <col width="12" customWidth="1" min="74" max="74"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3118,6 +3175,9 @@
       <c r="BU1" s="1" t="n">
         <v>20251209</v>
       </c>
+      <c r="BV1" s="1" t="n">
+        <v>20251210</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3343,6 +3403,9 @@
       <c r="BU2" t="n">
         <v>625.87</v>
       </c>
+      <c r="BV2" t="n">
+        <v>629.21</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3567,6 +3630,9 @@
       </c>
       <c r="BU3" t="n">
         <v>56.22</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>57.09</v>
       </c>
     </row>
   </sheetData>
@@ -3580,7 +3646,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BU3"/>
+  <dimension ref="A1:BV3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3661,6 +3727,7 @@
     <col width="12" customWidth="1" min="71" max="71"/>
     <col width="12" customWidth="1" min="72" max="72"/>
     <col width="12" customWidth="1" min="73" max="73"/>
+    <col width="12" customWidth="1" min="74" max="74"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3887,6 +3954,9 @@
       <c r="BU1" s="1" t="n">
         <v>20251209</v>
       </c>
+      <c r="BV1" s="1" t="n">
+        <v>20251210</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4112,6 +4182,9 @@
       <c r="BU2" t="n">
         <v>621</v>
       </c>
+      <c r="BV2" t="n">
+        <v>620.99</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4336,6 +4409,9 @@
       </c>
       <c r="BU3" t="n">
         <v>55.09</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>54.89</v>
       </c>
     </row>
   </sheetData>
@@ -4349,7 +4425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BU3"/>
+  <dimension ref="A1:BV3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4430,6 +4506,7 @@
     <col width="12" customWidth="1" min="71" max="71"/>
     <col width="12" customWidth="1" min="72" max="72"/>
     <col width="12" customWidth="1" min="73" max="73"/>
+    <col width="12" customWidth="1" min="74" max="74"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4656,6 +4733,9 @@
       <c r="BU1" s="1" t="n">
         <v>20251209</v>
       </c>
+      <c r="BV1" s="1" t="n">
+        <v>20251210</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4881,6 +4961,9 @@
       <c r="BU2" t="n">
         <v>625.05</v>
       </c>
+      <c r="BV2" t="n">
+        <v>627.61</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5105,6 +5188,9 @@
       </c>
       <c r="BU3" t="n">
         <v>56.01</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>56.65</v>
       </c>
     </row>
   </sheetData>
@@ -5118,7 +5204,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BU3"/>
+  <dimension ref="A1:BV3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5199,6 +5285,7 @@
     <col width="12" customWidth="1" min="71" max="71"/>
     <col width="12" customWidth="1" min="72" max="72"/>
     <col width="12" customWidth="1" min="73" max="73"/>
+    <col width="12" customWidth="1" min="74" max="74"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5425,6 +5512,9 @@
       <c r="BU1" s="1" t="n">
         <v>20251209</v>
       </c>
+      <c r="BV1" s="1" t="n">
+        <v>20251210</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -5650,6 +5740,9 @@
       <c r="BU2" t="n">
         <v>37155999</v>
       </c>
+      <c r="BV2" t="n">
+        <v>55031384</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5874,6 +5967,9 @@
       </c>
       <c r="BU3" t="n">
         <v>48735976</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>100261104</v>
       </c>
     </row>
   </sheetData>
@@ -5887,7 +5983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB3"/>
+  <dimension ref="A1:BC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5949,6 +6045,7 @@
     <col width="10" customWidth="1" min="52" max="52"/>
     <col width="10" customWidth="1" min="53" max="53"/>
     <col width="10" customWidth="1" min="54" max="54"/>
+    <col width="10" customWidth="1" min="55" max="55"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6118,6 +6215,9 @@
       <c r="BB1" s="1" t="n">
         <v>20251209</v>
       </c>
+      <c r="BC1" s="1" t="n">
+        <v>20251210</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6286,6 +6386,9 @@
       <c r="BB2" t="n">
         <v>99</v>
       </c>
+      <c r="BC2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6453,6 +6556,9 @@
       </c>
       <c r="BB3" t="n">
         <v>15</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -6466,7 +6572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6488,6 +6594,7 @@
     <col width="10" customWidth="1" min="12" max="12"/>
     <col width="10" customWidth="1" min="13" max="13"/>
     <col width="10" customWidth="1" min="14" max="14"/>
+    <col width="10" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6537,6 +6644,9 @@
       <c r="N1" s="1" t="n">
         <v>20251209</v>
       </c>
+      <c r="O1" s="1" t="n">
+        <v>20251210</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6585,6 +6695,9 @@
       <c r="N2" t="n">
         <v>79</v>
       </c>
+      <c r="O2" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6632,6 +6745,9 @@
       </c>
       <c r="N3" t="n">
         <v>13</v>
+      </c>
+      <c r="O3" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -6645,7 +6761,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB3"/>
+  <dimension ref="A1:BC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6707,6 +6823,7 @@
     <col width="10" customWidth="1" min="52" max="52"/>
     <col width="10" customWidth="1" min="53" max="53"/>
     <col width="10" customWidth="1" min="54" max="54"/>
+    <col width="10" customWidth="1" min="55" max="55"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6876,6 +6993,9 @@
       <c r="BB1" s="1" t="n">
         <v>20251209</v>
       </c>
+      <c r="BC1" s="1" t="n">
+        <v>20251210</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7044,6 +7164,9 @@
       <c r="BB2" t="n">
         <v>53</v>
       </c>
+      <c r="BC2" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7211,6 +7334,9 @@
       </c>
       <c r="BB3" t="n">
         <v>-30</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>-25</v>
       </c>
     </row>
   </sheetData>

--- a/US_Stocks_ETF.xlsx
+++ b/US_Stocks_ETF.xlsx
@@ -522,7 +522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,7 @@
     <col width="10" customWidth="1" min="13" max="13"/>
     <col width="10" customWidth="1" min="14" max="14"/>
     <col width="10" customWidth="1" min="15" max="15"/>
+    <col width="10" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -597,6 +598,9 @@
       <c r="O1" s="1" t="n">
         <v>20251210</v>
       </c>
+      <c r="P1" s="1" t="n">
+        <v>20251211</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -648,6 +652,9 @@
       <c r="O2" t="n">
         <v>70</v>
       </c>
+      <c r="P2" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -698,6 +705,9 @@
       </c>
       <c r="O3" t="n">
         <v>-81</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-79</v>
       </c>
     </row>
   </sheetData>
@@ -711,7 +721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC3"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -774,6 +784,7 @@
     <col width="12" customWidth="1" min="53" max="53"/>
     <col width="12" customWidth="1" min="54" max="54"/>
     <col width="12" customWidth="1" min="55" max="55"/>
+    <col width="12" customWidth="1" min="56" max="56"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1052,6 +1063,11 @@
           <t>20251210</t>
         </is>
       </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>20251211</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1223,6 +1239,9 @@
       <c r="BC2" t="n">
         <v>102</v>
       </c>
+      <c r="BD2" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1393,6 +1412,9 @@
       </c>
       <c r="BC3" t="n">
         <v>83</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1406,7 +1428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1450,6 +1472,7 @@
     <col width="12" customWidth="1" min="34" max="34"/>
     <col width="12" customWidth="1" min="35" max="35"/>
     <col width="12" customWidth="1" min="36" max="36"/>
+    <col width="12" customWidth="1" min="37" max="37"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1633,6 +1656,11 @@
           <t>20251210</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>20251211</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1747,6 +1775,9 @@
       <c r="AJ2" t="n">
         <v>5.56</v>
       </c>
+      <c r="AK2" t="n">
+        <v>6.19</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1860,6 +1891,9 @@
       </c>
       <c r="AJ3" t="n">
         <v>22.43</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>6.94</v>
       </c>
     </row>
   </sheetData>
@@ -1873,7 +1907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1896,6 +1930,7 @@
     <col width="12" customWidth="1" min="13" max="13"/>
     <col width="12" customWidth="1" min="14" max="14"/>
     <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="12" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1974,6 +2009,11 @@
           <t>20251210</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>20251211</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2025,6 +2065,9 @@
       <c r="O2" t="n">
         <v>47</v>
       </c>
+      <c r="P2" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2075,6 +2118,9 @@
       </c>
       <c r="O3" t="n">
         <v>73</v>
+      </c>
+      <c r="P3" t="n">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2088,7 +2134,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BV3"/>
+  <dimension ref="A1:BW3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2170,6 +2216,7 @@
     <col width="12" customWidth="1" min="72" max="72"/>
     <col width="12" customWidth="1" min="73" max="73"/>
     <col width="12" customWidth="1" min="74" max="74"/>
+    <col width="12" customWidth="1" min="75" max="75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2399,6 +2446,9 @@
       <c r="BV1" s="1" t="n">
         <v>20251210</v>
       </c>
+      <c r="BW1" s="1" t="n">
+        <v>20251211</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2627,6 +2677,9 @@
       <c r="BV2" t="n">
         <v>623.85</v>
       </c>
+      <c r="BW2" t="n">
+        <v>623.8200000000001</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2854,6 +2907,9 @@
       </c>
       <c r="BV3" t="n">
         <v>55.65</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>55.63</v>
       </c>
     </row>
   </sheetData>
@@ -2867,7 +2923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BV3"/>
+  <dimension ref="A1:BW3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2949,6 +3005,7 @@
     <col width="12" customWidth="1" min="72" max="72"/>
     <col width="12" customWidth="1" min="73" max="73"/>
     <col width="12" customWidth="1" min="74" max="74"/>
+    <col width="12" customWidth="1" min="75" max="75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3178,6 +3235,9 @@
       <c r="BV1" s="1" t="n">
         <v>20251210</v>
       </c>
+      <c r="BW1" s="1" t="n">
+        <v>20251211</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3406,6 +3466,9 @@
       <c r="BV2" t="n">
         <v>629.21</v>
       </c>
+      <c r="BW2" t="n">
+        <v>625.78</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3633,6 +3696,9 @@
       </c>
       <c r="BV3" t="n">
         <v>57.09</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>56.16</v>
       </c>
     </row>
   </sheetData>
@@ -3646,7 +3712,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BV3"/>
+  <dimension ref="A1:BW3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3728,6 +3794,7 @@
     <col width="12" customWidth="1" min="72" max="72"/>
     <col width="12" customWidth="1" min="73" max="73"/>
     <col width="12" customWidth="1" min="74" max="74"/>
+    <col width="12" customWidth="1" min="75" max="75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3957,6 +4024,9 @@
       <c r="BV1" s="1" t="n">
         <v>20251210</v>
       </c>
+      <c r="BW1" s="1" t="n">
+        <v>20251211</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4185,6 +4255,9 @@
       <c r="BV2" t="n">
         <v>620.99</v>
       </c>
+      <c r="BW2" t="n">
+        <v>617.72</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4412,6 +4485,9 @@
       </c>
       <c r="BV3" t="n">
         <v>54.89</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>53.98</v>
       </c>
     </row>
   </sheetData>
@@ -4425,7 +4501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BV3"/>
+  <dimension ref="A1:BW3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4507,6 +4583,7 @@
     <col width="12" customWidth="1" min="72" max="72"/>
     <col width="12" customWidth="1" min="73" max="73"/>
     <col width="12" customWidth="1" min="74" max="74"/>
+    <col width="12" customWidth="1" min="75" max="75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4736,6 +4813,9 @@
       <c r="BV1" s="1" t="n">
         <v>20251210</v>
       </c>
+      <c r="BW1" s="1" t="n">
+        <v>20251211</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4964,6 +5044,9 @@
       <c r="BV2" t="n">
         <v>627.61</v>
       </c>
+      <c r="BW2" t="n">
+        <v>625.58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5191,6 +5274,9 @@
       </c>
       <c r="BV3" t="n">
         <v>56.65</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>56.11</v>
       </c>
     </row>
   </sheetData>
@@ -5204,7 +5290,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BV3"/>
+  <dimension ref="A1:BW3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5286,6 +5372,7 @@
     <col width="12" customWidth="1" min="72" max="72"/>
     <col width="12" customWidth="1" min="73" max="73"/>
     <col width="12" customWidth="1" min="74" max="74"/>
+    <col width="12" customWidth="1" min="75" max="75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5515,6 +5602,9 @@
       <c r="BV1" s="1" t="n">
         <v>20251210</v>
       </c>
+      <c r="BW1" s="1" t="n">
+        <v>20251211</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -5743,6 +5833,9 @@
       <c r="BV2" t="n">
         <v>55031384</v>
       </c>
+      <c r="BW2" t="n">
+        <v>58272844</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5970,6 +6063,9 @@
       </c>
       <c r="BV3" t="n">
         <v>100261104</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>99683926</v>
       </c>
     </row>
   </sheetData>
@@ -5983,7 +6079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC3"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6046,6 +6142,7 @@
     <col width="10" customWidth="1" min="53" max="53"/>
     <col width="10" customWidth="1" min="54" max="54"/>
     <col width="10" customWidth="1" min="55" max="55"/>
+    <col width="10" customWidth="1" min="56" max="56"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6218,6 +6315,9 @@
       <c r="BC1" s="1" t="n">
         <v>20251210</v>
       </c>
+      <c r="BD1" s="1" t="n">
+        <v>20251211</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6389,6 +6489,9 @@
       <c r="BC2" t="n">
         <v>100</v>
       </c>
+      <c r="BD2" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6559,6 +6662,9 @@
       </c>
       <c r="BC3" t="n">
         <v>16</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -6572,7 +6678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6595,6 +6701,7 @@
     <col width="10" customWidth="1" min="13" max="13"/>
     <col width="10" customWidth="1" min="14" max="14"/>
     <col width="10" customWidth="1" min="15" max="15"/>
+    <col width="10" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6647,6 +6754,9 @@
       <c r="O1" s="1" t="n">
         <v>20251210</v>
       </c>
+      <c r="P1" s="1" t="n">
+        <v>20251211</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6698,6 +6808,9 @@
       <c r="O2" t="n">
         <v>84</v>
       </c>
+      <c r="P2" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6748,6 +6861,9 @@
       </c>
       <c r="O3" t="n">
         <v>14</v>
+      </c>
+      <c r="P3" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -6761,7 +6877,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC3"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6824,6 +6940,7 @@
     <col width="10" customWidth="1" min="53" max="53"/>
     <col width="10" customWidth="1" min="54" max="54"/>
     <col width="10" customWidth="1" min="55" max="55"/>
+    <col width="10" customWidth="1" min="56" max="56"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6996,6 +7113,9 @@
       <c r="BC1" s="1" t="n">
         <v>20251210</v>
       </c>
+      <c r="BD1" s="1" t="n">
+        <v>20251211</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7167,6 +7287,9 @@
       <c r="BC2" t="n">
         <v>60</v>
       </c>
+      <c r="BD2" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7337,6 +7460,9 @@
       </c>
       <c r="BC3" t="n">
         <v>-25</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>-22</v>
       </c>
     </row>
   </sheetData>

--- a/US_Stocks_ETF.xlsx
+++ b/US_Stocks_ETF.xlsx
@@ -522,7 +522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,6 +546,7 @@
     <col width="10" customWidth="1" min="14" max="14"/>
     <col width="10" customWidth="1" min="15" max="15"/>
     <col width="10" customWidth="1" min="16" max="16"/>
+    <col width="10" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -601,6 +602,9 @@
       <c r="P1" s="1" t="n">
         <v>20251211</v>
       </c>
+      <c r="Q1" s="1" t="n">
+        <v>20251212</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -655,6 +659,9 @@
       <c r="P2" t="n">
         <v>60</v>
       </c>
+      <c r="Q2" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -708,6 +715,9 @@
       </c>
       <c r="P3" t="n">
         <v>-79</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-82</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +731,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BE3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,6 +795,7 @@
     <col width="12" customWidth="1" min="54" max="54"/>
     <col width="12" customWidth="1" min="55" max="55"/>
     <col width="12" customWidth="1" min="56" max="56"/>
+    <col width="12" customWidth="1" min="57" max="57"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1068,6 +1079,11 @@
           <t>20251211</t>
         </is>
       </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>20251212</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1242,6 +1258,9 @@
       <c r="BD2" t="n">
         <v>102</v>
       </c>
+      <c r="BE2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1415,6 +1434,9 @@
       </c>
       <c r="BD3" t="n">
         <v>85</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1428,7 +1450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK3"/>
+  <dimension ref="A1:AL3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1473,6 +1495,7 @@
     <col width="12" customWidth="1" min="35" max="35"/>
     <col width="12" customWidth="1" min="36" max="36"/>
     <col width="12" customWidth="1" min="37" max="37"/>
+    <col width="12" customWidth="1" min="38" max="38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1661,6 +1684,11 @@
           <t>20251211</t>
         </is>
       </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>20251212</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1778,6 +1806,9 @@
       <c r="AK2" t="n">
         <v>6.19</v>
       </c>
+      <c r="AL2" t="n">
+        <v>4.55</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1894,6 +1925,9 @@
       </c>
       <c r="AK3" t="n">
         <v>6.94</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>-5.74</v>
       </c>
     </row>
   </sheetData>
@@ -1907,7 +1941,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1931,6 +1965,7 @@
     <col width="12" customWidth="1" min="14" max="14"/>
     <col width="12" customWidth="1" min="15" max="15"/>
     <col width="12" customWidth="1" min="16" max="16"/>
+    <col width="12" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2014,6 +2049,11 @@
           <t>20251211</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>20251212</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2068,6 +2108,9 @@
       <c r="P2" t="n">
         <v>50</v>
       </c>
+      <c r="Q2" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2121,6 +2164,9 @@
       </c>
       <c r="P3" t="n">
         <v>72</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2134,7 +2180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BW3"/>
+  <dimension ref="A1:BX3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2217,6 +2263,7 @@
     <col width="12" customWidth="1" min="73" max="73"/>
     <col width="12" customWidth="1" min="74" max="74"/>
     <col width="12" customWidth="1" min="75" max="75"/>
+    <col width="12" customWidth="1" min="76" max="76"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2449,6 +2496,9 @@
       <c r="BW1" s="1" t="n">
         <v>20251211</v>
       </c>
+      <c r="BX1" s="1" t="n">
+        <v>20251212</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2680,6 +2730,9 @@
       <c r="BW2" t="n">
         <v>623.8200000000001</v>
       </c>
+      <c r="BX2" t="n">
+        <v>622.08</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2910,6 +2963,9 @@
       </c>
       <c r="BW3" t="n">
         <v>55.63</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>55.11</v>
       </c>
     </row>
   </sheetData>
@@ -2923,7 +2979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BW3"/>
+  <dimension ref="A1:BX3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3006,6 +3062,7 @@
     <col width="12" customWidth="1" min="73" max="73"/>
     <col width="12" customWidth="1" min="74" max="74"/>
     <col width="12" customWidth="1" min="75" max="75"/>
+    <col width="12" customWidth="1" min="76" max="76"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3238,6 +3295,9 @@
       <c r="BW1" s="1" t="n">
         <v>20251211</v>
       </c>
+      <c r="BX1" s="1" t="n">
+        <v>20251212</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3469,6 +3529,9 @@
       <c r="BW2" t="n">
         <v>625.78</v>
       </c>
+      <c r="BX2" t="n">
+        <v>623.54</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3699,6 +3762,9 @@
       </c>
       <c r="BW3" t="n">
         <v>56.16</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>55.52</v>
       </c>
     </row>
   </sheetData>
@@ -3712,7 +3778,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BW3"/>
+  <dimension ref="A1:BX3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3795,6 +3861,7 @@
     <col width="12" customWidth="1" min="73" max="73"/>
     <col width="12" customWidth="1" min="74" max="74"/>
     <col width="12" customWidth="1" min="75" max="75"/>
+    <col width="12" customWidth="1" min="76" max="76"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4027,6 +4094,9 @@
       <c r="BW1" s="1" t="n">
         <v>20251211</v>
       </c>
+      <c r="BX1" s="1" t="n">
+        <v>20251212</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4258,6 +4328,9 @@
       <c r="BW2" t="n">
         <v>617.72</v>
       </c>
+      <c r="BX2" t="n">
+        <v>611.36</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4488,6 +4561,9 @@
       </c>
       <c r="BW3" t="n">
         <v>53.98</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>52.23</v>
       </c>
     </row>
   </sheetData>
@@ -4501,7 +4577,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BW3"/>
+  <dimension ref="A1:BX3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4584,6 +4660,7 @@
     <col width="12" customWidth="1" min="73" max="73"/>
     <col width="12" customWidth="1" min="74" max="74"/>
     <col width="12" customWidth="1" min="75" max="75"/>
+    <col width="12" customWidth="1" min="76" max="76"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4816,6 +4893,9 @@
       <c r="BW1" s="1" t="n">
         <v>20251211</v>
       </c>
+      <c r="BX1" s="1" t="n">
+        <v>20251212</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -5047,6 +5127,9 @@
       <c r="BW2" t="n">
         <v>625.58</v>
       </c>
+      <c r="BX2" t="n">
+        <v>613.62</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5277,6 +5360,9 @@
       </c>
       <c r="BW3" t="n">
         <v>56.11</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>52.82</v>
       </c>
     </row>
   </sheetData>
@@ -5290,7 +5376,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BW3"/>
+  <dimension ref="A1:BX3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5373,6 +5459,7 @@
     <col width="12" customWidth="1" min="73" max="73"/>
     <col width="12" customWidth="1" min="74" max="74"/>
     <col width="12" customWidth="1" min="75" max="75"/>
+    <col width="12" customWidth="1" min="76" max="76"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5605,6 +5692,9 @@
       <c r="BW1" s="1" t="n">
         <v>20251211</v>
       </c>
+      <c r="BX1" s="1" t="n">
+        <v>20251212</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -5836,6 +5926,9 @@
       <c r="BW2" t="n">
         <v>58272844</v>
       </c>
+      <c r="BX2" t="n">
+        <v>75158726</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6066,6 +6159,9 @@
       </c>
       <c r="BW3" t="n">
         <v>99683926</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>138448531</v>
       </c>
     </row>
   </sheetData>
@@ -6079,7 +6175,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BE3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6143,6 +6239,7 @@
     <col width="10" customWidth="1" min="54" max="54"/>
     <col width="10" customWidth="1" min="55" max="55"/>
     <col width="10" customWidth="1" min="56" max="56"/>
+    <col width="10" customWidth="1" min="57" max="57"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6318,6 +6415,9 @@
       <c r="BD1" s="1" t="n">
         <v>20251211</v>
       </c>
+      <c r="BE1" s="1" t="n">
+        <v>20251212</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6492,6 +6592,9 @@
       <c r="BD2" t="n">
         <v>95</v>
       </c>
+      <c r="BE2" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6665,6 +6768,9 @@
       </c>
       <c r="BD3" t="n">
         <v>17</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -6678,7 +6784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6702,6 +6808,7 @@
     <col width="10" customWidth="1" min="14" max="14"/>
     <col width="10" customWidth="1" min="15" max="15"/>
     <col width="10" customWidth="1" min="16" max="16"/>
+    <col width="10" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6757,6 +6864,9 @@
       <c r="P1" s="1" t="n">
         <v>20251211</v>
       </c>
+      <c r="Q1" s="1" t="n">
+        <v>20251212</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6811,6 +6921,9 @@
       <c r="P2" t="n">
         <v>80</v>
       </c>
+      <c r="Q2" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6864,6 +6977,9 @@
       </c>
       <c r="P3" t="n">
         <v>13</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -6877,7 +6993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BE3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6941,6 +7057,7 @@
     <col width="10" customWidth="1" min="54" max="54"/>
     <col width="10" customWidth="1" min="55" max="55"/>
     <col width="10" customWidth="1" min="56" max="56"/>
+    <col width="10" customWidth="1" min="57" max="57"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7116,6 +7233,9 @@
       <c r="BD1" s="1" t="n">
         <v>20251211</v>
       </c>
+      <c r="BE1" s="1" t="n">
+        <v>20251212</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7290,6 +7410,9 @@
       <c r="BD2" t="n">
         <v>51</v>
       </c>
+      <c r="BE2" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7463,6 +7586,9 @@
       </c>
       <c r="BD3" t="n">
         <v>-22</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>-26</v>
       </c>
     </row>
   </sheetData>
